--- a/Data/Results/RuntimeResult_ComplexityTest_pre.xlsx
+++ b/Data/Results/RuntimeResult_ComplexityTest_pre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Master\Hochschule Fulda\Module\Masterarbeit\Implementierungen\Data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472DBEE-A3B1-42AA-9E2C-8DCF3C9783E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5911E730-FECB-4F9E-B454-2237AE89F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>T1</t>
   </si>
@@ -72,10 +72,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -554,14 +555,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -618,6 +620,5224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Analysis of Limit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Number of Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$N$9:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$O$9:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7958.835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7819.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7818.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7818.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7820.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7820.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8016.7250000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86FC-4A01-8E28-101ADD1456EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="694415248"/>
+        <c:axId val="694421488"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Runtime (in sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$N$9:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$P$9:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8751980452499994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8692704215000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8647703377500013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8631162484999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8642892310000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8709189807500002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8664916105000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86FC-4A01-8E28-101ADD1456EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="694423408"/>
+        <c:axId val="694422448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="694415248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Limit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694421488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694421488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694415248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="694422448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694423408"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="694423408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="694422448"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Analysis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Limit considering </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>ε</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$S$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Number of Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$R$25:$R$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$S$25:$S$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CBE-471B-BE09-BC9814DE6CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="853789280"/>
+        <c:axId val="853803680"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$T$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Runtime (in sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$R$25:$R$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$T$25:$T$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.890802968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.873125004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8528872240000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8639318359999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8517891440000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8727134679999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8855643559999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CBE-471B-BE09-BC9814DE6CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="853785920"/>
+        <c:axId val="853794560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="853789280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Limit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853803680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853803680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853789280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="853794560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853785920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="853785920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="853794560"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Analysis of Limit considering </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>κ</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$S$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Number of Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$R$111:$R$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$S$111:$S$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7690.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7683.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7679.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7679.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7685.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7685.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE66-4EFF-9F0B-0A43BB044CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="694429648"/>
+        <c:axId val="694421968"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$T$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Runtime (in sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$R$111:$R$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$T$111:$T$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.90093402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.882249775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8593248600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.84955552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8851688499999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.865109895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8791323150000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE66-4EFF-9F0B-0A43BB044CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="853808000"/>
+        <c:axId val="694424368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="694429648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Limit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694421968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694421968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694429648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="694424368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853808000"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="853808000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="694424368"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Analysis of Limit considering </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ζ</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$S$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Number of Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$R$185:$R$191</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$S$185:$S$191</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7690.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7683.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7679.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7679.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7685.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7685.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A1A-4648-AF49-6FF98770757B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="853783520"/>
+        <c:axId val="853782560"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RuntimeResult_ComplexityTest!$T$184</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Runtime (in sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$R$185:$R$191</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RuntimeResult_ComplexityTest!$T$185:$T$191</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.8840043049999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.87996374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8835036000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.87532751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.891640835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.88545589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8825786099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A1A-4648-AF49-6FF98770757B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="853796000"/>
+        <c:axId val="853797440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="853783520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Limit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853782560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853782560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853783520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="853797440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853796000"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="853796000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="853797440"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FE9DC5-9948-544F-9789-E13F99D9136F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18746140-8D2E-9ED9-24C8-8FD3AFEEB8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BF4C23-493B-AD21-1F25-25E9C38BAAD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E430B1-163B-ED72-587B-C3F86714C548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,7 +6129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -917,10 +6137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2801"/>
+  <dimension ref="A1:T2801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="X173" sqref="X173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +6296,7 @@
       </c>
       <c r="P4">
         <f>SUMIFS(H:H,A:A,M4,B:B,N4)/COUNTIFS(A:A,M4,B:B,N4)</f>
-        <v>1.8697344902857158</v>
+        <v>1.8705059188571447</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1116,7 +6336,7 @@
       </c>
       <c r="P5">
         <f>SUMIFS(H:H,A:A,M5,B:B,N5)/COUNTIFS(A:A,M5,B:B,N5)</f>
-        <v>1.8744492008571429</v>
+        <v>1.8745777722857146</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1213,6 +6433,12 @@
       <c r="N8" t="s">
         <v>5</v>
       </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1396,7 +6622,7 @@
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>1.8645642310000006</v>
+        <v>1.8642892310000005</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1433,7 +6659,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>1.8703689807500001</v>
+        <v>1.8709189807500002</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1470,7 +6696,7 @@
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>1.8651916105000004</v>
+        <v>1.8664916105000007</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1499,7 +6725,7 @@
         <v>1.7792895</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1536,8 +6762,14 @@
       <c r="N17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1579,11 +6811,11 @@
         <v>7971</v>
       </c>
       <c r="P18">
-        <f>SUMIFS(H:H,A:A,K18,C:C,M18,F:F,N18,B:B,L18)/COUNTIFS(A:A,K18,C:C,M18,F:F,N18,B:B,L18)</f>
+        <f t="shared" ref="P18:P40" si="3">SUMIFS(H:H,A:A,K18,C:C,M18,F:F,N18,B:B,L18)/COUNTIFS(A:A,K18,C:C,M18,F:F,N18,B:B,L18)</f>
         <v>1.859058152</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1625,11 +6857,11 @@
         <v>7971</v>
       </c>
       <c r="P19">
-        <f>SUMIFS(H:H,A:A,K19,C:C,M19,F:F,N19,B:B,L19)/COUNTIFS(A:A,K19,C:C,M19,F:F,N19,B:B,L19)</f>
+        <f t="shared" si="3"/>
         <v>1.8777071919999995</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1671,11 +6903,11 @@
         <v>7971</v>
       </c>
       <c r="P20">
-        <f>SUMIFS(H:H,A:A,K20,C:C,M20,F:F,N20,B:B,L20)/COUNTIFS(A:A,K20,C:C,M20,F:F,N20,B:B,L20)</f>
+        <f t="shared" si="3"/>
         <v>1.8733391440000002</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1717,11 +6949,11 @@
         <v>7971</v>
       </c>
       <c r="P21">
-        <f>SUMIFS(H:H,A:A,K21,C:C,M21,F:F,N21,B:B,L21)/COUNTIFS(A:A,K21,C:C,M21,F:F,N21,B:B,L21)</f>
+        <f t="shared" si="3"/>
         <v>1.8634368239999999</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1763,11 +6995,11 @@
         <v>7967</v>
       </c>
       <c r="P22">
-        <f>SUMIFS(H:H,A:A,K22,C:C,M22,F:F,N22,B:B,L22)/COUNTIFS(A:A,K22,C:C,M22,F:F,N22,B:B,L22)</f>
+        <f t="shared" si="3"/>
         <v>1.8749760080000004</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1809,11 +7041,11 @@
         <v>7967</v>
       </c>
       <c r="P23">
-        <f>SUMIFS(H:H,A:A,K23,C:C,M23,F:F,N23,B:B,L23)/COUNTIFS(A:A,K23,C:C,M23,F:F,N23,B:B,L23)</f>
+        <f t="shared" si="3"/>
         <v>1.8658595479999998</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1855,11 +7087,17 @@
         <v>8013</v>
       </c>
       <c r="P24">
-        <f>SUMIFS(H:H,A:A,K24,C:C,M24,F:F,N24,B:B,L24)/COUNTIFS(A:A,K24,C:C,M24,F:F,N24,B:B,L24)</f>
-        <v>1.8558586039999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1.8594586039999998</v>
+      </c>
+      <c r="S24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1901,11 +7139,20 @@
         <v>7732</v>
       </c>
       <c r="P25">
-        <f>SUMIFS(H:H,A:A,K25,C:C,M25,F:F,N25,B:B,L25)/COUNTIFS(A:A,K25,C:C,M25,F:F,N25,B:B,L25)</f>
+        <f t="shared" si="3"/>
         <v>1.8908029680000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>7732</v>
+      </c>
+      <c r="T25">
+        <v>1.890802968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1947,11 +7194,20 @@
         <v>7732</v>
       </c>
       <c r="P26">
-        <f>SUMIFS(H:H,A:A,K26,C:C,M26,F:F,N26,B:B,L26)/COUNTIFS(A:A,K26,C:C,M26,F:F,N26,B:B,L26)</f>
+        <f t="shared" si="3"/>
         <v>1.8731250039999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>7732</v>
+      </c>
+      <c r="T26">
+        <v>1.873125004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1993,11 +7249,20 @@
         <v>7732</v>
       </c>
       <c r="P27">
-        <f>SUMIFS(H:H,A:A,K27,C:C,M27,F:F,N27,B:B,L27)/COUNTIFS(A:A,K27,C:C,M27,F:F,N27,B:B,L27)</f>
+        <f t="shared" si="3"/>
         <v>1.8528872240000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>15</v>
+      </c>
+      <c r="S27">
+        <v>7732</v>
+      </c>
+      <c r="T27">
+        <v>1.8528872240000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2039,11 +7304,20 @@
         <v>7732</v>
       </c>
       <c r="P28">
-        <f>SUMIFS(H:H,A:A,K28,C:C,M28,F:F,N28,B:B,L28)/COUNTIFS(A:A,K28,C:C,M28,F:F,N28,B:B,L28)</f>
+        <f t="shared" si="3"/>
         <v>1.8639318360000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>20</v>
+      </c>
+      <c r="S28">
+        <v>7732</v>
+      </c>
+      <c r="T28">
+        <v>1.8639318359999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2085,11 +7359,20 @@
         <v>7728</v>
       </c>
       <c r="P29" s="1">
-        <f>SUMIFS(H:H,A:A,K29,C:C,M29,F:F,N29,B:B,L29)/COUNTIFS(A:A,K29,C:C,M29,F:F,N29,B:B,L29)</f>
+        <f t="shared" si="3"/>
         <v>1.8517891439999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>25</v>
+      </c>
+      <c r="S29">
+        <v>7728</v>
+      </c>
+      <c r="T29">
+        <v>1.8517891440000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2131,11 +7414,20 @@
         <v>7728</v>
       </c>
       <c r="P30">
-        <f>SUMIFS(H:H,A:A,K30,C:C,M30,F:F,N30,B:B,L30)/COUNTIFS(A:A,K30,C:C,M30,F:F,N30,B:B,L30)</f>
+        <f t="shared" si="3"/>
         <v>1.8727134680000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>30</v>
+      </c>
+      <c r="S30">
+        <v>7728</v>
+      </c>
+      <c r="T30">
+        <v>1.8727134679999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2177,11 +7469,20 @@
         <v>8019</v>
       </c>
       <c r="P31">
-        <f>SUMIFS(H:H,A:A,K31,C:C,M31,F:F,N31,B:B,L31)/COUNTIFS(A:A,K31,C:C,M31,F:F,N31,B:B,L31)</f>
+        <f t="shared" si="3"/>
         <v>1.8855643560000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>35</v>
+      </c>
+      <c r="S31">
+        <v>8019</v>
+      </c>
+      <c r="T31">
+        <v>1.8855643559999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2223,7 +7524,7 @@
         <v>7782</v>
       </c>
       <c r="P32">
-        <f>SUMIFS(H:H,A:A,K32,C:C,M32,F:F,N32,B:B,L32)/COUNTIFS(A:A,K32,C:C,M32,F:F,N32,B:B,L32)</f>
+        <f t="shared" si="3"/>
         <v>1.8655193720000001</v>
       </c>
     </row>
@@ -2269,7 +7570,7 @@
         <v>7782</v>
       </c>
       <c r="P33">
-        <f>SUMIFS(H:H,A:A,K33,C:C,M33,F:F,N33,B:B,L33)/COUNTIFS(A:A,K33,C:C,M33,F:F,N33,B:B,L33)</f>
+        <f t="shared" si="3"/>
         <v>1.8810610559999998</v>
       </c>
     </row>
@@ -2315,7 +7616,7 @@
         <v>7782</v>
       </c>
       <c r="P34">
-        <f>SUMIFS(H:H,A:A,K34,C:C,M34,F:F,N34,B:B,L34)/COUNTIFS(A:A,K34,C:C,M34,F:F,N34,B:B,L34)</f>
+        <f t="shared" si="3"/>
         <v>1.8796638240000001</v>
       </c>
     </row>
@@ -2361,7 +7662,7 @@
         <v>7782</v>
       </c>
       <c r="P35">
-        <f>SUMIFS(H:H,A:A,K35,C:C,M35,F:F,N35,B:B,L35)/COUNTIFS(A:A,K35,C:C,M35,F:F,N35,B:B,L35)</f>
+        <f t="shared" si="3"/>
         <v>1.8909143919999998</v>
       </c>
     </row>
@@ -2407,7 +7708,7 @@
         <v>7778</v>
       </c>
       <c r="P36">
-        <f>SUMIFS(H:H,A:A,K36,C:C,M36,F:F,N36,B:B,L36)/COUNTIFS(A:A,K36,C:C,M36,F:F,N36,B:B,L36)</f>
+        <f t="shared" si="3"/>
         <v>1.869681368</v>
       </c>
     </row>
@@ -2453,7 +7754,7 @@
         <v>7778</v>
       </c>
       <c r="P37">
-        <f>SUMIFS(H:H,A:A,K37,C:C,M37,F:F,N37,B:B,L37)/COUNTIFS(A:A,K37,C:C,M37,F:F,N37,B:B,L37)</f>
+        <f t="shared" si="3"/>
         <v>1.8929967479999994</v>
       </c>
     </row>
@@ -2499,7 +7800,7 @@
         <v>8067</v>
       </c>
       <c r="P38">
-        <f>SUMIFS(H:H,A:A,K38,C:C,M38,F:F,N38,B:B,L38)/COUNTIFS(A:A,K38,C:C,M38,F:F,N38,B:B,L38)</f>
+        <f t="shared" si="3"/>
         <v>1.8738541320000004</v>
       </c>
     </row>
@@ -2545,7 +7846,7 @@
         <v>8871</v>
       </c>
       <c r="P39">
-        <f>SUMIFS(H:H,A:A,K39,C:C,M39,F:F,N39,B:B,L39)/COUNTIFS(A:A,K39,C:C,M39,F:F,N39,B:B,L39)</f>
+        <f t="shared" si="3"/>
         <v>1.8909425520000005</v>
       </c>
     </row>
@@ -2591,7 +7892,7 @@
         <v>7782</v>
       </c>
       <c r="P40" s="4">
-        <f>SUMIFS(H:H,A:A,K40,C:C,M40,F:F,N40,B:B,L40)/COUNTIFS(A:A,K40,C:C,M40,F:F,N40,B:B,L40)</f>
+        <f t="shared" si="3"/>
         <v>1.8693113599999998</v>
       </c>
     </row>
@@ -2637,7 +7938,7 @@
         <v>7782</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" ref="P41:P79" si="3">SUMIFS(H:H,A:A,K41,C:C,M41,F:F,N41,B:B,L41)/COUNTIFS(A:A,K41,C:C,M41,F:F,N41,B:B,L41)</f>
+        <f t="shared" ref="P41:P79" si="4">SUMIFS(H:H,A:A,K41,C:C,M41,F:F,N41,B:B,L41)/COUNTIFS(A:A,K41,C:C,M41,F:F,N41,B:B,L41)</f>
         <v>1.8923637280000001</v>
       </c>
     </row>
@@ -2683,7 +7984,7 @@
         <v>7782</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8751884199999997</v>
       </c>
     </row>
@@ -2729,7 +8030,7 @@
         <v>7778</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8699067279999997</v>
       </c>
     </row>
@@ -2775,7 +8076,7 @@
         <v>7778</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8799150320000002</v>
       </c>
     </row>
@@ -2821,7 +8122,7 @@
         <v>8067</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.89220944</v>
       </c>
     </row>
@@ -2867,7 +8168,7 @@
         <v>7778</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8699067279999997</v>
       </c>
     </row>
@@ -2913,7 +8214,7 @@
         <v>7778</v>
       </c>
       <c r="P47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8799150320000002</v>
       </c>
     </row>
@@ -2959,7 +8260,7 @@
         <v>8067</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.89220944</v>
       </c>
     </row>
@@ -3005,7 +8306,7 @@
         <v>7702.68</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9125150680000003</v>
       </c>
     </row>
@@ -3051,7 +8352,7 @@
         <v>7696.52</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.882840804</v>
       </c>
     </row>
@@ -3097,7 +8398,7 @@
         <v>7694.52</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8876626560000003</v>
       </c>
     </row>
@@ -3143,7 +8444,7 @@
         <v>7694.12</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8882823520000003</v>
       </c>
     </row>
@@ -3189,7 +8490,7 @@
         <v>7699.72</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8800566120000004</v>
       </c>
     </row>
@@ -3235,7 +8536,7 @@
         <v>7699.72</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9161066679999996</v>
       </c>
     </row>
@@ -3281,7 +8582,7 @@
         <v>8004.12</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.911289792</v>
       </c>
     </row>
@@ -3327,7 +8628,7 @@
         <v>7699.12</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8940368160000005</v>
       </c>
     </row>
@@ -3373,7 +8674,7 @@
         <v>7692.96</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8873793720000001</v>
       </c>
     </row>
@@ -3419,7 +8720,7 @@
         <v>7690.48</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8807683719999995</v>
       </c>
     </row>
@@ -3465,7 +8766,7 @@
         <v>7690.08</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8793572319999998</v>
       </c>
     </row>
@@ -3511,7 +8812,7 @@
         <v>7695.68</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8892229400000005</v>
       </c>
     </row>
@@ -3557,7 +8858,7 @@
         <v>7695.68</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.89008478</v>
       </c>
     </row>
@@ -3603,7 +8904,7 @@
         <v>8011.64</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8701699559999998</v>
       </c>
     </row>
@@ -3649,7 +8950,7 @@
         <v>7699.36</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9138275199999999</v>
       </c>
     </row>
@@ -3695,7 +8996,7 @@
         <v>7693.2</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8770764439999998</v>
       </c>
     </row>
@@ -3741,7 +9042,7 @@
         <v>7690.48</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.867967428</v>
       </c>
     </row>
@@ -3787,7 +9088,7 @@
         <v>7689.52</v>
       </c>
       <c r="P66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8706072839999999</v>
       </c>
     </row>
@@ -3833,7 +9134,7 @@
         <v>7692.56</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8783911919999996</v>
       </c>
     </row>
@@ -3879,7 +9180,7 @@
         <v>7692.56</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8818662919999993</v>
       </c>
     </row>
@@ -3925,7 +9226,7 @@
         <v>8008.68</v>
       </c>
       <c r="P69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8924945599999998</v>
       </c>
     </row>
@@ -3971,7 +9272,7 @@
         <v>9015.24</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8823524120000001</v>
       </c>
     </row>
@@ -4017,7 +9318,7 @@
         <v>7925.84</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9008634519999998</v>
       </c>
     </row>
@@ -4063,7 +9364,7 @@
         <v>7923.28</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8525611080000002</v>
       </c>
     </row>
@@ -4109,7 +9410,7 @@
         <v>7922.32</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8790231080000002</v>
       </c>
     </row>
@@ -4155,7 +9456,7 @@
         <v>7923.76</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9029793040000005</v>
       </c>
     </row>
@@ -4201,7 +9502,7 @@
         <v>7923.76</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9095674640000004</v>
       </c>
     </row>
@@ -4247,7 +9548,7 @@
         <v>8008.68</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8909479240000002</v>
       </c>
     </row>
@@ -4293,7 +9594,7 @@
         <v>7923.76</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9029793040000005</v>
       </c>
     </row>
@@ -4339,7 +9640,7 @@
         <v>7923.76</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9095674640000004</v>
       </c>
     </row>
@@ -4385,7 +9686,7 @@
         <v>8008.68</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8909479240000002</v>
       </c>
     </row>
@@ -4491,11 +9792,11 @@
         <v>5</v>
       </c>
       <c r="O82">
-        <f>SUMIFS(G:G,A:A,K82,B:B,L82,D:D,M82,F:F,N82)/COUNTIFS(A:A,K82,B:B,L82,D:D,M82,F:F,N82)</f>
+        <f t="shared" ref="O82:O117" si="5">SUMIFS(G:G,A:A,K82,B:B,L82,D:D,M82,F:F,N82)/COUNTIFS(A:A,K82,B:B,L82,D:D,M82,F:F,N82)</f>
         <v>7757.8</v>
       </c>
       <c r="P82" s="4">
-        <f>SUMIFS(H:H,A:A,K82,B:B,L82,D:D,M82,F:F,N82)/COUNTIFS(A:A,K82,B:B,L82,D:D,M82,F:F,N82)</f>
+        <f t="shared" ref="P82:P117" si="6">SUMIFS(H:H,A:A,K82,B:B,L82,D:D,M82,F:F,N82)/COUNTIFS(A:A,K82,B:B,L82,D:D,M82,F:F,N82)</f>
         <v>1.8772915999999999</v>
       </c>
     </row>
@@ -4537,11 +9838,11 @@
         <v>10</v>
       </c>
       <c r="O83" s="3">
-        <f>SUMIFS(G:G,A:A,K83,B:B,L83,D:D,M83,F:F,N83)/COUNTIFS(A:A,K83,B:B,L83,D:D,M83,F:F,N83)</f>
+        <f t="shared" si="5"/>
         <v>7753</v>
       </c>
       <c r="P83" s="4">
-        <f>SUMIFS(H:H,A:A,K83,B:B,L83,D:D,M83,F:F,N83)/COUNTIFS(A:A,K83,B:B,L83,D:D,M83,F:F,N83)</f>
+        <f t="shared" si="6"/>
         <v>1.86347101</v>
       </c>
     </row>
@@ -4583,11 +9884,11 @@
         <v>15</v>
       </c>
       <c r="O84" s="3">
-        <f>SUMIFS(G:G,A:A,K84,B:B,L84,D:D,M84,F:F,N84)/COUNTIFS(A:A,K84,B:B,L84,D:D,M84,F:F,N84)</f>
+        <f t="shared" si="5"/>
         <v>7752.4</v>
       </c>
       <c r="P84" s="4">
-        <f>SUMIFS(H:H,A:A,K84,B:B,L84,D:D,M84,F:F,N84)/COUNTIFS(A:A,K84,B:B,L84,D:D,M84,F:F,N84)</f>
+        <f t="shared" si="6"/>
         <v>1.8732990800000002</v>
       </c>
     </row>
@@ -4629,11 +9930,11 @@
         <v>20</v>
       </c>
       <c r="O85" s="3">
-        <f>SUMIFS(G:G,A:A,K85,B:B,L85,D:D,M85,F:F,N85)/COUNTIFS(A:A,K85,B:B,L85,D:D,M85,F:F,N85)</f>
+        <f t="shared" si="5"/>
         <v>7752.4</v>
       </c>
       <c r="P85" s="4">
-        <f>SUMIFS(H:H,A:A,K85,B:B,L85,D:D,M85,F:F,N85)/COUNTIFS(A:A,K85,B:B,L85,D:D,M85,F:F,N85)</f>
+        <f t="shared" si="6"/>
         <v>1.8579339199999996</v>
       </c>
     </row>
@@ -4675,11 +9976,11 @@
         <v>25</v>
       </c>
       <c r="O86" s="3">
-        <f>SUMIFS(G:G,A:A,K86,B:B,L86,D:D,M86,F:F,N86)/COUNTIFS(A:A,K86,B:B,L86,D:D,M86,F:F,N86)</f>
+        <f t="shared" si="5"/>
         <v>7757.2</v>
       </c>
       <c r="P86" s="4">
-        <f>SUMIFS(H:H,A:A,K86,B:B,L86,D:D,M86,F:F,N86)/COUNTIFS(A:A,K86,B:B,L86,D:D,M86,F:F,N86)</f>
+        <f t="shared" si="6"/>
         <v>1.8832754900000002</v>
       </c>
     </row>
@@ -4721,12 +10022,12 @@
         <v>30</v>
       </c>
       <c r="O87" s="3">
-        <f>SUMIFS(G:G,A:A,K87,B:B,L87,D:D,M87,F:F,N87)/COUNTIFS(A:A,K87,B:B,L87,D:D,M87,F:F,N87)</f>
+        <f t="shared" si="5"/>
         <v>7757.2</v>
       </c>
       <c r="P87" s="4">
-        <f>SUMIFS(H:H,A:A,K87,B:B,L87,D:D,M87,F:F,N87)/COUNTIFS(A:A,K87,B:B,L87,D:D,M87,F:F,N87)</f>
-        <v>1.8784970600000002</v>
+        <f t="shared" si="6"/>
+        <v>1.8764970600000002</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -4767,12 +10068,12 @@
         <v>35</v>
       </c>
       <c r="O88" s="3">
-        <f>SUMIFS(G:G,A:A,K88,B:B,L88,D:D,M88,F:F,N88)/COUNTIFS(A:A,K88,B:B,L88,D:D,M88,F:F,N88)</f>
+        <f t="shared" si="5"/>
         <v>8006.2</v>
       </c>
       <c r="P88" s="4">
-        <f>SUMIFS(H:H,A:A,K88,B:B,L88,D:D,M88,F:F,N88)/COUNTIFS(A:A,K88,B:B,L88,D:D,M88,F:F,N88)</f>
-        <v>1.8694301299999996</v>
+        <f t="shared" si="6"/>
+        <v>1.8749301299999996</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -4813,11 +10114,11 @@
         <v>5</v>
       </c>
       <c r="O89" s="3">
-        <f>SUMIFS(G:G,A:A,K89,B:B,L89,D:D,M89,F:F,N89)/COUNTIFS(A:A,K89,B:B,L89,D:D,M89,F:F,N89)</f>
+        <f t="shared" si="5"/>
         <v>7692.6</v>
       </c>
       <c r="P89" s="4">
-        <f>SUMIFS(H:H,A:A,K89,B:B,L89,D:D,M89,F:F,N89)/COUNTIFS(A:A,K89,B:B,L89,D:D,M89,F:F,N89)</f>
+        <f t="shared" si="6"/>
         <v>1.8695509450000003</v>
       </c>
     </row>
@@ -4859,11 +10160,11 @@
         <v>10</v>
       </c>
       <c r="O90" s="3">
-        <f>SUMIFS(G:G,A:A,K90,B:B,L90,D:D,M90,F:F,N90)/COUNTIFS(A:A,K90,B:B,L90,D:D,M90,F:F,N90)</f>
+        <f t="shared" si="5"/>
         <v>7686.4</v>
       </c>
       <c r="P90" s="4">
-        <f>SUMIFS(H:H,A:A,K90,B:B,L90,D:D,M90,F:F,N90)/COUNTIFS(A:A,K90,B:B,L90,D:D,M90,F:F,N90)</f>
+        <f t="shared" si="6"/>
         <v>1.8715977300000002</v>
       </c>
     </row>
@@ -4905,11 +10206,11 @@
         <v>15</v>
       </c>
       <c r="O91" s="3">
-        <f>SUMIFS(G:G,A:A,K91,B:B,L91,D:D,M91,F:F,N91)/COUNTIFS(A:A,K91,B:B,L91,D:D,M91,F:F,N91)</f>
+        <f t="shared" si="5"/>
         <v>7685.6</v>
       </c>
       <c r="P91" s="4">
-        <f>SUMIFS(H:H,A:A,K91,B:B,L91,D:D,M91,F:F,N91)/COUNTIFS(A:A,K91,B:B,L91,D:D,M91,F:F,N91)</f>
+        <f t="shared" si="6"/>
         <v>1.8612454199999999</v>
       </c>
     </row>
@@ -4951,11 +10252,11 @@
         <v>20</v>
       </c>
       <c r="O92" s="3">
-        <f>SUMIFS(G:G,A:A,K92,B:B,L92,D:D,M92,F:F,N92)/COUNTIFS(A:A,K92,B:B,L92,D:D,M92,F:F,N92)</f>
+        <f t="shared" si="5"/>
         <v>7685.6</v>
       </c>
       <c r="P92" s="4">
-        <f>SUMIFS(H:H,A:A,K92,B:B,L92,D:D,M92,F:F,N92)/COUNTIFS(A:A,K92,B:B,L92,D:D,M92,F:F,N92)</f>
+        <f t="shared" si="6"/>
         <v>1.9024197300000005</v>
       </c>
     </row>
@@ -4997,11 +10298,11 @@
         <v>25</v>
       </c>
       <c r="O93" s="3">
-        <f>SUMIFS(G:G,A:A,K93,B:B,L93,D:D,M93,F:F,N93)/COUNTIFS(A:A,K93,B:B,L93,D:D,M93,F:F,N93)</f>
+        <f t="shared" si="5"/>
         <v>7691.6</v>
       </c>
       <c r="P93" s="4">
-        <f>SUMIFS(H:H,A:A,K93,B:B,L93,D:D,M93,F:F,N93)/COUNTIFS(A:A,K93,B:B,L93,D:D,M93,F:F,N93)</f>
+        <f t="shared" si="6"/>
         <v>1.8848246150000001</v>
       </c>
     </row>
@@ -5043,12 +10344,12 @@
         <v>30</v>
       </c>
       <c r="O94" s="3">
-        <f>SUMIFS(G:G,A:A,K94,B:B,L94,D:D,M94,F:F,N94)/COUNTIFS(A:A,K94,B:B,L94,D:D,M94,F:F,N94)</f>
+        <f t="shared" si="5"/>
         <v>7691.6</v>
       </c>
       <c r="P94" s="4">
-        <f>SUMIFS(H:H,A:A,K94,B:B,L94,D:D,M94,F:F,N94)/COUNTIFS(A:A,K94,B:B,L94,D:D,M94,F:F,N94)</f>
-        <v>1.8656317299999998</v>
+        <f t="shared" si="6"/>
+        <v>1.88013173</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -5089,12 +10390,12 @@
         <v>35</v>
       </c>
       <c r="O95" s="3">
-        <f>SUMIFS(G:G,A:A,K95,B:B,L95,D:D,M95,F:F,N95)/COUNTIFS(A:A,K95,B:B,L95,D:D,M95,F:F,N95)</f>
+        <f t="shared" si="5"/>
         <v>8004.2</v>
       </c>
       <c r="P95" s="4">
-        <f>SUMIFS(H:H,A:A,K95,B:B,L95,D:D,M95,F:F,N95)/COUNTIFS(A:A,K95,B:B,L95,D:D,M95,F:F,N95)</f>
-        <v>1.858838845</v>
+        <f t="shared" si="6"/>
+        <v>1.8618388450000001</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -5135,15 +10436,15 @@
         <v>5</v>
       </c>
       <c r="O96" s="3">
-        <f>SUMIFS(G:G,A:A,K96,B:B,L96,D:D,M96,F:F,N96)/COUNTIFS(A:A,K96,B:B,L96,D:D,M96,F:F,N96)</f>
+        <f t="shared" si="5"/>
         <v>7691</v>
       </c>
       <c r="P96" s="4">
-        <f>SUMIFS(H:H,A:A,K96,B:B,L96,D:D,M96,F:F,N96)/COUNTIFS(A:A,K96,B:B,L96,D:D,M96,F:F,N96)</f>
+        <f t="shared" si="6"/>
         <v>1.8561588299999996</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -5181,15 +10482,15 @@
         <v>10</v>
       </c>
       <c r="O97" s="3">
-        <f>SUMIFS(G:G,A:A,K97,B:B,L97,D:D,M97,F:F,N97)/COUNTIFS(A:A,K97,B:B,L97,D:D,M97,F:F,N97)</f>
+        <f t="shared" si="5"/>
         <v>7684.6</v>
       </c>
       <c r="P97" s="4">
-        <f>SUMIFS(H:H,A:A,K97,B:B,L97,D:D,M97,F:F,N97)/COUNTIFS(A:A,K97,B:B,L97,D:D,M97,F:F,N97)</f>
+        <f t="shared" si="6"/>
         <v>1.8911268700000003</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -5227,15 +10528,15 @@
         <v>15</v>
       </c>
       <c r="O98" s="3">
-        <f>SUMIFS(G:G,A:A,K98,B:B,L98,D:D,M98,F:F,N98)/COUNTIFS(A:A,K98,B:B,L98,D:D,M98,F:F,N98)</f>
+        <f t="shared" si="5"/>
         <v>7682.6</v>
       </c>
       <c r="P98" s="4">
-        <f>SUMIFS(H:H,A:A,K98,B:B,L98,D:D,M98,F:F,N98)/COUNTIFS(A:A,K98,B:B,L98,D:D,M98,F:F,N98)</f>
+        <f t="shared" si="6"/>
         <v>1.8866997250000002</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
@@ -5273,15 +10574,15 @@
         <v>20</v>
       </c>
       <c r="O99" s="3">
-        <f>SUMIFS(G:G,A:A,K99,B:B,L99,D:D,M99,F:F,N99)/COUNTIFS(A:A,K99,B:B,L99,D:D,M99,F:F,N99)</f>
+        <f t="shared" si="5"/>
         <v>7682.6</v>
       </c>
       <c r="P99" s="4">
-        <f>SUMIFS(H:H,A:A,K99,B:B,L99,D:D,M99,F:F,N99)/COUNTIFS(A:A,K99,B:B,L99,D:D,M99,F:F,N99)</f>
+        <f t="shared" si="6"/>
         <v>1.8617019849999998</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -5319,15 +10620,15 @@
         <v>25</v>
       </c>
       <c r="O100" s="3">
-        <f>SUMIFS(G:G,A:A,K100,B:B,L100,D:D,M100,F:F,N100)/COUNTIFS(A:A,K100,B:B,L100,D:D,M100,F:F,N100)</f>
+        <f t="shared" si="5"/>
         <v>7688.6</v>
       </c>
       <c r="P100" s="4">
-        <f>SUMIFS(H:H,A:A,K100,B:B,L100,D:D,M100,F:F,N100)/COUNTIFS(A:A,K100,B:B,L100,D:D,M100,F:F,N100)</f>
+        <f t="shared" si="6"/>
         <v>1.8585111099999998</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -5365,15 +10666,15 @@
         <v>30</v>
       </c>
       <c r="O101" s="3">
-        <f>SUMIFS(G:G,A:A,K101,B:B,L101,D:D,M101,F:F,N101)/COUNTIFS(A:A,K101,B:B,L101,D:D,M101,F:F,N101)</f>
+        <f t="shared" si="5"/>
         <v>7688.6</v>
       </c>
       <c r="P101" s="4">
-        <f>SUMIFS(H:H,A:A,K101,B:B,L101,D:D,M101,F:F,N101)/COUNTIFS(A:A,K101,B:B,L101,D:D,M101,F:F,N101)</f>
-        <v>1.8543626949999996</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.8558626950000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
@@ -5411,15 +10712,15 @@
         <v>35</v>
       </c>
       <c r="O102" s="3">
-        <f>SUMIFS(G:G,A:A,K102,B:B,L102,D:D,M102,F:F,N102)/COUNTIFS(A:A,K102,B:B,L102,D:D,M102,F:F,N102)</f>
+        <f t="shared" si="5"/>
         <v>8004.2</v>
       </c>
       <c r="P102" s="4">
-        <f>SUMIFS(H:H,A:A,K102,B:B,L102,D:D,M102,F:F,N102)/COUNTIFS(A:A,K102,B:B,L102,D:D,M102,F:F,N102)</f>
-        <v>1.8518311600000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.8598311599999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5457,15 +10758,15 @@
         <v>5</v>
       </c>
       <c r="O103" s="3">
-        <f>SUMIFS(G:G,A:A,K103,B:B,L103,D:D,M103,F:F,N103)/COUNTIFS(A:A,K103,B:B,L103,D:D,M103,F:F,N103)</f>
+        <f t="shared" si="5"/>
         <v>7689.4</v>
       </c>
       <c r="P103" s="4">
-        <f>SUMIFS(H:H,A:A,K103,B:B,L103,D:D,M103,F:F,N103)/COUNTIFS(A:A,K103,B:B,L103,D:D,M103,F:F,N103)</f>
+        <f t="shared" si="6"/>
         <v>1.8682405699999998</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5503,15 +10804,15 @@
         <v>10</v>
       </c>
       <c r="O104" s="3">
-        <f>SUMIFS(G:G,A:A,K104,B:B,L104,D:D,M104,F:F,N104)/COUNTIFS(A:A,K104,B:B,L104,D:D,M104,F:F,N104)</f>
+        <f t="shared" si="5"/>
         <v>7682.8</v>
       </c>
       <c r="P104" s="4">
-        <f>SUMIFS(H:H,A:A,K104,B:B,L104,D:D,M104,F:F,N104)/COUNTIFS(A:A,K104,B:B,L104,D:D,M104,F:F,N104)</f>
+        <f t="shared" si="6"/>
         <v>1.85786172</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5549,15 +10850,15 @@
         <v>15</v>
       </c>
       <c r="O105" s="3">
-        <f>SUMIFS(G:G,A:A,K105,B:B,L105,D:D,M105,F:F,N105)/COUNTIFS(A:A,K105,B:B,L105,D:D,M105,F:F,N105)</f>
+        <f t="shared" si="5"/>
         <v>7680</v>
       </c>
       <c r="P105" s="4">
-        <f>SUMIFS(H:H,A:A,K105,B:B,L105,D:D,M105,F:F,N105)/COUNTIFS(A:A,K105,B:B,L105,D:D,M105,F:F,N105)</f>
+        <f t="shared" si="6"/>
         <v>1.8634211949999997</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5595,15 +10896,15 @@
         <v>20</v>
       </c>
       <c r="O106" s="3">
-        <f>SUMIFS(G:G,A:A,K106,B:B,L106,D:D,M106,F:F,N106)/COUNTIFS(A:A,K106,B:B,L106,D:D,M106,F:F,N106)</f>
+        <f t="shared" si="5"/>
         <v>7679.8</v>
       </c>
       <c r="P106" s="4">
-        <f>SUMIFS(H:H,A:A,K106,B:B,L106,D:D,M106,F:F,N106)/COUNTIFS(A:A,K106,B:B,L106,D:D,M106,F:F,N106)</f>
+        <f t="shared" si="6"/>
         <v>1.8698384350000001</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5641,15 +10942,15 @@
         <v>25</v>
       </c>
       <c r="O107" s="3">
-        <f>SUMIFS(G:G,A:A,K107,B:B,L107,D:D,M107,F:F,N107)/COUNTIFS(A:A,K107,B:B,L107,D:D,M107,F:F,N107)</f>
+        <f t="shared" si="5"/>
         <v>7685.8</v>
       </c>
       <c r="P107" s="4">
-        <f>SUMIFS(H:H,A:A,K107,B:B,L107,D:D,M107,F:F,N107)/COUNTIFS(A:A,K107,B:B,L107,D:D,M107,F:F,N107)</f>
+        <f t="shared" si="6"/>
         <v>1.8574143749999994</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -5687,15 +10988,15 @@
         <v>30</v>
       </c>
       <c r="O108" s="3">
-        <f>SUMIFS(G:G,A:A,K108,B:B,L108,D:D,M108,F:F,N108)/COUNTIFS(A:A,K108,B:B,L108,D:D,M108,F:F,N108)</f>
+        <f t="shared" si="5"/>
         <v>7685.8</v>
       </c>
       <c r="P108" s="4">
-        <f>SUMIFS(H:H,A:A,K108,B:B,L108,D:D,M108,F:F,N108)/COUNTIFS(A:A,K108,B:B,L108,D:D,M108,F:F,N108)</f>
-        <v>1.8553018600000002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.8473018600000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -5733,15 +11034,15 @@
         <v>35</v>
       </c>
       <c r="O109" s="3">
-        <f>SUMIFS(G:G,A:A,K109,B:B,L109,D:D,M109,F:F,N109)/COUNTIFS(A:A,K109,B:B,L109,D:D,M109,F:F,N109)</f>
+        <f t="shared" si="5"/>
         <v>8003</v>
       </c>
       <c r="P109" s="4">
-        <f>SUMIFS(H:H,A:A,K109,B:B,L109,D:D,M109,F:F,N109)/COUNTIFS(A:A,K109,B:B,L109,D:D,M109,F:F,N109)</f>
-        <v>1.8704540899999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.8739540899999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
@@ -5779,15 +11080,21 @@
         <v>5</v>
       </c>
       <c r="O110" s="3">
-        <f>SUMIFS(G:G,A:A,K110,B:B,L110,D:D,M110,F:F,N110)/COUNTIFS(A:A,K110,B:B,L110,D:D,M110,F:F,N110)</f>
+        <f t="shared" si="5"/>
         <v>7690.4</v>
       </c>
       <c r="P110" s="4">
-        <f>SUMIFS(H:H,A:A,K110,B:B,L110,D:D,M110,F:F,N110)/COUNTIFS(A:A,K110,B:B,L110,D:D,M110,F:F,N110)</f>
+        <f t="shared" si="6"/>
         <v>1.90093402</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S110" t="s">
+        <v>7</v>
+      </c>
+      <c r="T110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -5825,15 +11132,24 @@
         <v>10</v>
       </c>
       <c r="O111" s="3">
-        <f>SUMIFS(G:G,A:A,K111,B:B,L111,D:D,M111,F:F,N111)/COUNTIFS(A:A,K111,B:B,L111,D:D,M111,F:F,N111)</f>
+        <f t="shared" si="5"/>
         <v>7683.6</v>
       </c>
       <c r="P111" s="4">
-        <f>SUMIFS(H:H,A:A,K111,B:B,L111,D:D,M111,F:F,N111)/COUNTIFS(A:A,K111,B:B,L111,D:D,M111,F:F,N111)</f>
+        <f t="shared" si="6"/>
         <v>1.882249775</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="S111">
+        <v>7690.4</v>
+      </c>
+      <c r="T111">
+        <v>1.90093402</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -5871,15 +11187,24 @@
         <v>15</v>
       </c>
       <c r="O112" s="3">
-        <f>SUMIFS(G:G,A:A,K112,B:B,L112,D:D,M112,F:F,N112)/COUNTIFS(A:A,K112,B:B,L112,D:D,M112,F:F,N112)</f>
+        <f t="shared" si="5"/>
         <v>7679.8</v>
       </c>
       <c r="P112" s="4">
-        <f>SUMIFS(H:H,A:A,K112,B:B,L112,D:D,M112,F:F,N112)/COUNTIFS(A:A,K112,B:B,L112,D:D,M112,F:F,N112)</f>
+        <f t="shared" si="6"/>
         <v>1.8593248599999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <v>10</v>
+      </c>
+      <c r="S112">
+        <v>7683.6</v>
+      </c>
+      <c r="T112">
+        <v>1.882249775</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0</v>
       </c>
@@ -5917,15 +11242,24 @@
         <v>20</v>
       </c>
       <c r="O113" s="5">
-        <f>SUMIFS(G:G,A:A,K113,B:B,L113,D:D,M113,F:F,N113)/COUNTIFS(A:A,K113,B:B,L113,D:D,M113,F:F,N113)</f>
+        <f t="shared" si="5"/>
         <v>7679.4</v>
       </c>
       <c r="P113" s="6">
-        <f>SUMIFS(H:H,A:A,K113,B:B,L113,D:D,M113,F:F,N113)/COUNTIFS(A:A,K113,B:B,L113,D:D,M113,F:F,N113)</f>
+        <f t="shared" si="6"/>
         <v>1.8495555200000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <v>15</v>
+      </c>
+      <c r="S113">
+        <v>7679.8</v>
+      </c>
+      <c r="T113">
+        <v>1.8593248600000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0</v>
       </c>
@@ -5963,15 +11297,24 @@
         <v>25</v>
       </c>
       <c r="O114" s="3">
-        <f>SUMIFS(G:G,A:A,K114,B:B,L114,D:D,M114,F:F,N114)/COUNTIFS(A:A,K114,B:B,L114,D:D,M114,F:F,N114)</f>
+        <f t="shared" si="5"/>
         <v>7685.4</v>
       </c>
       <c r="P114" s="4">
-        <f>SUMIFS(H:H,A:A,K114,B:B,L114,D:D,M114,F:F,N114)/COUNTIFS(A:A,K114,B:B,L114,D:D,M114,F:F,N114)</f>
-        <v>1.8906688499999997</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.8851688499999999</v>
+      </c>
+      <c r="R114">
+        <v>20</v>
+      </c>
+      <c r="S114">
+        <v>7679.4</v>
+      </c>
+      <c r="T114">
+        <v>1.84955552</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -6009,15 +11352,24 @@
         <v>30</v>
       </c>
       <c r="O115" s="3">
-        <f>SUMIFS(G:G,A:A,K115,B:B,L115,D:D,M115,F:F,N115)/COUNTIFS(A:A,K115,B:B,L115,D:D,M115,F:F,N115)</f>
+        <f t="shared" si="5"/>
         <v>7685.4</v>
       </c>
       <c r="P115" s="4">
-        <f>SUMIFS(H:H,A:A,K115,B:B,L115,D:D,M115,F:F,N115)/COUNTIFS(A:A,K115,B:B,L115,D:D,M115,F:F,N115)</f>
-        <v>1.8601098950000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.8651098949999998</v>
+      </c>
+      <c r="R115">
+        <v>25</v>
+      </c>
+      <c r="S115">
+        <v>7685.4</v>
+      </c>
+      <c r="T115">
+        <v>1.8851688499999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -6055,15 +11407,24 @@
         <v>35</v>
       </c>
       <c r="O116" s="3">
-        <f>SUMIFS(G:G,A:A,K116,B:B,L116,D:D,M116,F:F,N116)/COUNTIFS(A:A,K116,B:B,L116,D:D,M116,F:F,N116)</f>
+        <f t="shared" si="5"/>
         <v>8003</v>
       </c>
       <c r="P116" s="4">
-        <f>SUMIFS(H:H,A:A,K116,B:B,L116,D:D,M116,F:F,N116)/COUNTIFS(A:A,K116,B:B,L116,D:D,M116,F:F,N116)</f>
-        <v>1.8776323150000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.8791323150000001</v>
+      </c>
+      <c r="R116">
+        <v>30</v>
+      </c>
+      <c r="S116">
+        <v>7685.4</v>
+      </c>
+      <c r="T116">
+        <v>1.865109895</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -6101,15 +11462,24 @@
         <v>5</v>
       </c>
       <c r="O117" s="3">
-        <f>SUMIFS(G:G,A:A,K117,B:B,L117,D:D,M117,F:F,N117)/COUNTIFS(A:A,K117,B:B,L117,D:D,M117,F:F,N117)</f>
+        <f t="shared" si="5"/>
         <v>7994.3</v>
       </c>
       <c r="P117" s="4">
-        <f>SUMIFS(H:H,A:A,K117,B:B,L117,D:D,M117,F:F,N117)/COUNTIFS(A:A,K117,B:B,L117,D:D,M117,F:F,N117)</f>
+        <f t="shared" si="6"/>
         <v>1.9056875950000005</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <v>35</v>
+      </c>
+      <c r="S117">
+        <v>8003</v>
+      </c>
+      <c r="T117">
+        <v>1.8791323150000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -6147,15 +11517,15 @@
         <v>10</v>
       </c>
       <c r="O118" s="3">
-        <f t="shared" ref="O118:O151" si="4">SUMIFS(G:G,A:A,K118,B:B,L118,D:D,M118,F:F,N118)/COUNTIFS(A:A,K118,B:B,L118,D:D,M118,F:F,N118)</f>
+        <f t="shared" ref="O118:O151" si="7">SUMIFS(G:G,A:A,K118,B:B,L118,D:D,M118,F:F,N118)/COUNTIFS(A:A,K118,B:B,L118,D:D,M118,F:F,N118)</f>
         <v>7718.45</v>
       </c>
       <c r="P118" s="4">
-        <f t="shared" ref="P118:P151" si="5">SUMIFS(H:H,A:A,K118,B:B,L118,D:D,M118,F:F,N118)/COUNTIFS(A:A,K118,B:B,L118,D:D,M118,F:F,N118)</f>
+        <f t="shared" ref="P118:P151" si="8">SUMIFS(H:H,A:A,K118,B:B,L118,D:D,M118,F:F,N118)/COUNTIFS(A:A,K118,B:B,L118,D:D,M118,F:F,N118)</f>
         <v>1.87656102</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -6193,15 +11563,15 @@
         <v>15</v>
       </c>
       <c r="O119" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7717.85</v>
       </c>
       <c r="P119" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.881856685</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
@@ -6239,15 +11609,15 @@
         <v>20</v>
       </c>
       <c r="O120" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7717.45</v>
       </c>
       <c r="P120" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8735958149999998</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0</v>
       </c>
@@ -6285,15 +11655,15 @@
         <v>25</v>
       </c>
       <c r="O121" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7719.65</v>
       </c>
       <c r="P121" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8795487049999995</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -6331,15 +11701,15 @@
         <v>30</v>
       </c>
       <c r="O122" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7719.65</v>
       </c>
       <c r="P122" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8872140449999999</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -6377,15 +11747,15 @@
         <v>35</v>
       </c>
       <c r="O123" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8017</v>
       </c>
       <c r="P123" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.90464476</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0</v>
       </c>
@@ -6427,11 +11797,11 @@
         <v>7969.15</v>
       </c>
       <c r="P124" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.916525735</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -6469,15 +11839,15 @@
         <v>10</v>
       </c>
       <c r="O125" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7692.2</v>
       </c>
       <c r="P125" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8797403699999999</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -6515,15 +11885,15 @@
         <v>15</v>
       </c>
       <c r="O126" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7691.4</v>
       </c>
       <c r="P126" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8765463099999997</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -6561,15 +11931,15 @@
         <v>20</v>
       </c>
       <c r="O127" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7690.8</v>
       </c>
       <c r="P127" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8698969900000002</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -6607,11 +11977,11 @@
         <v>25</v>
       </c>
       <c r="O128" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7694.6</v>
       </c>
       <c r="P128" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8868266749999996</v>
       </c>
     </row>
@@ -6653,11 +12023,11 @@
         <v>30</v>
       </c>
       <c r="O129" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7694.6</v>
       </c>
       <c r="P129" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8932919250000002</v>
       </c>
     </row>
@@ -6699,11 +12069,11 @@
         <v>35</v>
       </c>
       <c r="O130" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8009.8</v>
       </c>
       <c r="P130" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8834635300000007</v>
       </c>
     </row>
@@ -6745,11 +12115,11 @@
         <v>5</v>
       </c>
       <c r="O131" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8012.85</v>
       </c>
       <c r="P131" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.893605475</v>
       </c>
     </row>
@@ -6791,11 +12161,11 @@
         <v>10</v>
       </c>
       <c r="O132" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7735.7</v>
       </c>
       <c r="P132" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9053588700000001</v>
       </c>
     </row>
@@ -6837,11 +12207,11 @@
         <v>15</v>
       </c>
       <c r="O133" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7733.45</v>
       </c>
       <c r="P133" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.84804122</v>
       </c>
     </row>
@@ -6883,11 +12253,11 @@
         <v>20</v>
       </c>
       <c r="O134" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7732.75</v>
       </c>
       <c r="P134" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8839158199999997</v>
       </c>
     </row>
@@ -6929,11 +12299,11 @@
         <v>25</v>
       </c>
       <c r="O135" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7736.95</v>
       </c>
       <c r="P135" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.892482145</v>
       </c>
     </row>
@@ -6975,11 +12345,11 @@
         <v>30</v>
       </c>
       <c r="O136" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7736.95</v>
       </c>
       <c r="P136" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9038513649999995</v>
       </c>
     </row>
@@ -7021,11 +12391,11 @@
         <v>35</v>
       </c>
       <c r="O137" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8006.1</v>
       </c>
       <c r="P137" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9070184899999993</v>
       </c>
     </row>
@@ -7067,11 +12437,11 @@
         <v>5</v>
       </c>
       <c r="O138" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8060</v>
       </c>
       <c r="P138" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8945782099999999</v>
       </c>
     </row>
@@ -7113,11 +12483,11 @@
         <v>10</v>
       </c>
       <c r="O139" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7782.65</v>
       </c>
       <c r="P139" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8901573949999999</v>
       </c>
     </row>
@@ -7159,11 +12529,11 @@
         <v>15</v>
       </c>
       <c r="O140" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7779.1</v>
       </c>
       <c r="P140" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8590805549999998</v>
       </c>
     </row>
@@ -7205,11 +12575,11 @@
         <v>20</v>
       </c>
       <c r="O141" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7778.3</v>
       </c>
       <c r="P141" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9074417400000001</v>
       </c>
     </row>
@@ -7251,11 +12621,11 @@
         <v>25</v>
       </c>
       <c r="O142" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7782.9</v>
       </c>
       <c r="P142" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8953117600000002</v>
       </c>
     </row>
@@ -7297,11 +12667,11 @@
         <v>30</v>
       </c>
       <c r="O143" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7782.9</v>
       </c>
       <c r="P143" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9091909750000002</v>
       </c>
     </row>
@@ -7343,11 +12713,11 @@
         <v>35</v>
       </c>
       <c r="O144" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8004.5</v>
       </c>
       <c r="P144" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8727145099999993</v>
       </c>
     </row>
@@ -7389,11 +12759,11 @@
         <v>5</v>
       </c>
       <c r="O145" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8109.2</v>
       </c>
       <c r="P145" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8930177550000002</v>
       </c>
     </row>
@@ -7435,11 +12805,11 @@
         <v>10</v>
       </c>
       <c r="O146" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7831.65</v>
       </c>
       <c r="P146" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8833824350000004</v>
       </c>
     </row>
@@ -7481,11 +12851,11 @@
         <v>15</v>
       </c>
       <c r="O147" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7826.65</v>
       </c>
       <c r="P147" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8956746849999999</v>
       </c>
     </row>
@@ -7527,11 +12897,11 @@
         <v>20</v>
       </c>
       <c r="O148" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7825.75</v>
       </c>
       <c r="P148" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8617371050000002</v>
       </c>
     </row>
@@ -7573,11 +12943,11 @@
         <v>25</v>
       </c>
       <c r="O149" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7830.55</v>
       </c>
       <c r="P149" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8841432750000002</v>
       </c>
     </row>
@@ -7619,11 +12989,11 @@
         <v>30</v>
       </c>
       <c r="O150" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7830.55</v>
       </c>
       <c r="P150" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.9034831950000004</v>
       </c>
     </row>
@@ -7665,11 +13035,11 @@
         <v>35</v>
       </c>
       <c r="O151" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8004</v>
       </c>
       <c r="P151" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8882865000000006</v>
       </c>
     </row>
@@ -7827,11 +13197,11 @@
         <v>5</v>
       </c>
       <c r="O156">
-        <f>SUMIFS(G:G,A:A,K156,B:B,L156,E:E,M156,F:F,N156)/COUNTIFS(A:A,K156,B:B,L156,E:E,M156,F:F,N156)</f>
+        <f t="shared" ref="O156:O191" si="9">SUMIFS(G:G,A:A,K156,B:B,L156,E:E,M156,F:F,N156)/COUNTIFS(A:A,K156,B:B,L156,E:E,M156,F:F,N156)</f>
         <v>7759</v>
       </c>
       <c r="P156">
-        <f>SUMIFS(H:H,A:A,K156,B:B,L156,E:E,M156,F:F,N156)/COUNTIFS(A:A,K156,B:B,L156,E:E,M156,F:F,N156)</f>
+        <f t="shared" ref="P156:P191" si="10">SUMIFS(H:H,A:A,K156,B:B,L156,E:E,M156,F:F,N156)/COUNTIFS(A:A,K156,B:B,L156,E:E,M156,F:F,N156)</f>
         <v>1.8892503649999999</v>
       </c>
     </row>
@@ -7873,11 +13243,11 @@
         <v>10</v>
       </c>
       <c r="O157">
-        <f>SUMIFS(G:G,A:A,K157,B:B,L157,E:E,M157,F:F,N157)/COUNTIFS(A:A,K157,B:B,L157,E:E,M157,F:F,N157)</f>
+        <f t="shared" si="9"/>
         <v>7754.2</v>
       </c>
       <c r="P157">
-        <f>SUMIFS(H:H,A:A,K157,B:B,L157,E:E,M157,F:F,N157)/COUNTIFS(A:A,K157,B:B,L157,E:E,M157,F:F,N157)</f>
+        <f t="shared" si="10"/>
         <v>1.8523062250000002</v>
       </c>
     </row>
@@ -7919,11 +13289,11 @@
         <v>15</v>
       </c>
       <c r="O158">
-        <f>SUMIFS(G:G,A:A,K158,B:B,L158,E:E,M158,F:F,N158)/COUNTIFS(A:A,K158,B:B,L158,E:E,M158,F:F,N158)</f>
+        <f t="shared" si="9"/>
         <v>7753.6</v>
       </c>
       <c r="P158" s="4">
-        <f>SUMIFS(H:H,A:A,K158,B:B,L158,E:E,M158,F:F,N158)/COUNTIFS(A:A,K158,B:B,L158,E:E,M158,F:F,N158)</f>
+        <f t="shared" si="10"/>
         <v>1.8390786800000005</v>
       </c>
     </row>
@@ -7965,11 +13335,11 @@
         <v>20</v>
       </c>
       <c r="O159">
-        <f>SUMIFS(G:G,A:A,K159,B:B,L159,E:E,M159,F:F,N159)/COUNTIFS(A:A,K159,B:B,L159,E:E,M159,F:F,N159)</f>
+        <f t="shared" si="9"/>
         <v>7753.6</v>
       </c>
       <c r="P159" s="4">
-        <f>SUMIFS(H:H,A:A,K159,B:B,L159,E:E,M159,F:F,N159)/COUNTIFS(A:A,K159,B:B,L159,E:E,M159,F:F,N159)</f>
+        <f t="shared" si="10"/>
         <v>1.8636586050000001</v>
       </c>
     </row>
@@ -8011,11 +13381,11 @@
         <v>25</v>
       </c>
       <c r="O160">
-        <f>SUMIFS(G:G,A:A,K160,B:B,L160,E:E,M160,F:F,N160)/COUNTIFS(A:A,K160,B:B,L160,E:E,M160,F:F,N160)</f>
+        <f t="shared" si="9"/>
         <v>7758.4</v>
       </c>
       <c r="P160" s="4">
-        <f>SUMIFS(H:H,A:A,K160,B:B,L160,E:E,M160,F:F,N160)/COUNTIFS(A:A,K160,B:B,L160,E:E,M160,F:F,N160)</f>
+        <f t="shared" si="10"/>
         <v>1.84785975</v>
       </c>
     </row>
@@ -8057,12 +13427,12 @@
         <v>30</v>
       </c>
       <c r="O161">
-        <f>SUMIFS(G:G,A:A,K161,B:B,L161,E:E,M161,F:F,N161)/COUNTIFS(A:A,K161,B:B,L161,E:E,M161,F:F,N161)</f>
+        <f t="shared" si="9"/>
         <v>7758.4</v>
       </c>
       <c r="P161" s="4">
-        <f>SUMIFS(H:H,A:A,K161,B:B,L161,E:E,M161,F:F,N161)/COUNTIFS(A:A,K161,B:B,L161,E:E,M161,F:F,N161)</f>
-        <v>1.8552420649999999</v>
+        <f t="shared" si="10"/>
+        <v>1.8557420650000001</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
@@ -8103,11 +13473,11 @@
         <v>35</v>
       </c>
       <c r="O162">
-        <f>SUMIFS(G:G,A:A,K162,B:B,L162,E:E,M162,F:F,N162)/COUNTIFS(A:A,K162,B:B,L162,E:E,M162,F:F,N162)</f>
+        <f t="shared" si="9"/>
         <v>8007.4</v>
       </c>
       <c r="P162" s="4">
-        <f>SUMIFS(H:H,A:A,K162,B:B,L162,E:E,M162,F:F,N162)/COUNTIFS(A:A,K162,B:B,L162,E:E,M162,F:F,N162)</f>
+        <f t="shared" si="10"/>
         <v>1.8873345700000002</v>
       </c>
     </row>
@@ -8149,11 +13519,11 @@
         <v>5</v>
       </c>
       <c r="O163">
-        <f>SUMIFS(G:G,A:A,K163,B:B,L163,E:E,M163,F:F,N163)/COUNTIFS(A:A,K163,B:B,L163,E:E,M163,F:F,N163)</f>
+        <f t="shared" si="9"/>
         <v>7692.6</v>
       </c>
       <c r="P163" s="4">
-        <f>SUMIFS(H:H,A:A,K163,B:B,L163,E:E,M163,F:F,N163)/COUNTIFS(A:A,K163,B:B,L163,E:E,M163,F:F,N163)</f>
+        <f t="shared" si="10"/>
         <v>1.8739560200000001</v>
       </c>
     </row>
@@ -8195,11 +13565,11 @@
         <v>10</v>
       </c>
       <c r="O164">
-        <f>SUMIFS(G:G,A:A,K164,B:B,L164,E:E,M164,F:F,N164)/COUNTIFS(A:A,K164,B:B,L164,E:E,M164,F:F,N164)</f>
+        <f t="shared" si="9"/>
         <v>7686.4</v>
       </c>
       <c r="P164" s="4">
-        <f>SUMIFS(H:H,A:A,K164,B:B,L164,E:E,M164,F:F,N164)/COUNTIFS(A:A,K164,B:B,L164,E:E,M164,F:F,N164)</f>
+        <f t="shared" si="10"/>
         <v>1.9070131799999999</v>
       </c>
     </row>
@@ -8241,11 +13611,11 @@
         <v>15</v>
       </c>
       <c r="O165">
-        <f>SUMIFS(G:G,A:A,K165,B:B,L165,E:E,M165,F:F,N165)/COUNTIFS(A:A,K165,B:B,L165,E:E,M165,F:F,N165)</f>
+        <f t="shared" si="9"/>
         <v>7685.6</v>
       </c>
       <c r="P165" s="4">
-        <f>SUMIFS(H:H,A:A,K165,B:B,L165,E:E,M165,F:F,N165)/COUNTIFS(A:A,K165,B:B,L165,E:E,M165,F:F,N165)</f>
+        <f t="shared" si="10"/>
         <v>1.8926910750000001</v>
       </c>
     </row>
@@ -8287,11 +13657,11 @@
         <v>20</v>
       </c>
       <c r="O166">
-        <f>SUMIFS(G:G,A:A,K166,B:B,L166,E:E,M166,F:F,N166)/COUNTIFS(A:A,K166,B:B,L166,E:E,M166,F:F,N166)</f>
+        <f t="shared" si="9"/>
         <v>7685.6</v>
       </c>
       <c r="P166" s="4">
-        <f>SUMIFS(H:H,A:A,K166,B:B,L166,E:E,M166,F:F,N166)/COUNTIFS(A:A,K166,B:B,L166,E:E,M166,F:F,N166)</f>
+        <f t="shared" si="10"/>
         <v>1.8674422950000005</v>
       </c>
     </row>
@@ -8333,11 +13703,11 @@
         <v>25</v>
       </c>
       <c r="O167">
-        <f>SUMIFS(G:G,A:A,K167,B:B,L167,E:E,M167,F:F,N167)/COUNTIFS(A:A,K167,B:B,L167,E:E,M167,F:F,N167)</f>
+        <f t="shared" si="9"/>
         <v>7691.6</v>
       </c>
       <c r="P167" s="4">
-        <f>SUMIFS(H:H,A:A,K167,B:B,L167,E:E,M167,F:F,N167)/COUNTIFS(A:A,K167,B:B,L167,E:E,M167,F:F,N167)</f>
+        <f t="shared" si="10"/>
         <v>1.8892011900000003</v>
       </c>
     </row>
@@ -8379,12 +13749,12 @@
         <v>30</v>
       </c>
       <c r="O168">
-        <f>SUMIFS(G:G,A:A,K168,B:B,L168,E:E,M168,F:F,N168)/COUNTIFS(A:A,K168,B:B,L168,E:E,M168,F:F,N168)</f>
+        <f t="shared" si="9"/>
         <v>7691.6</v>
       </c>
       <c r="P168" s="4">
-        <f>SUMIFS(H:H,A:A,K168,B:B,L168,E:E,M168,F:F,N168)/COUNTIFS(A:A,K168,B:B,L168,E:E,M168,F:F,N168)</f>
-        <v>1.8702625799999997</v>
+        <f t="shared" si="10"/>
+        <v>1.8662625799999997</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -8425,12 +13795,12 @@
         <v>35</v>
       </c>
       <c r="O169">
-        <f>SUMIFS(G:G,A:A,K169,B:B,L169,E:E,M169,F:F,N169)/COUNTIFS(A:A,K169,B:B,L169,E:E,M169,F:F,N169)</f>
+        <f t="shared" si="9"/>
         <v>8004.2</v>
       </c>
       <c r="P169" s="4">
-        <f>SUMIFS(H:H,A:A,K169,B:B,L169,E:E,M169,F:F,N169)/COUNTIFS(A:A,K169,B:B,L169,E:E,M169,F:F,N169)</f>
-        <v>1.850827885</v>
+        <f t="shared" si="10"/>
+        <v>1.8498278850000003</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
@@ -8471,11 +13841,11 @@
         <v>5</v>
       </c>
       <c r="O170">
-        <f>SUMIFS(G:G,A:A,K170,B:B,L170,E:E,M170,F:F,N170)/COUNTIFS(A:A,K170,B:B,L170,E:E,M170,F:F,N170)</f>
+        <f t="shared" si="9"/>
         <v>7689.6</v>
       </c>
       <c r="P170" s="4">
-        <f>SUMIFS(H:H,A:A,K170,B:B,L170,E:E,M170,F:F,N170)/COUNTIFS(A:A,K170,B:B,L170,E:E,M170,F:F,N170)</f>
+        <f t="shared" si="10"/>
         <v>1.8685881399999995</v>
       </c>
     </row>
@@ -8517,11 +13887,11 @@
         <v>10</v>
       </c>
       <c r="O171">
-        <f>SUMIFS(G:G,A:A,K171,B:B,L171,E:E,M171,F:F,N171)/COUNTIFS(A:A,K171,B:B,L171,E:E,M171,F:F,N171)</f>
+        <f t="shared" si="9"/>
         <v>7683.2</v>
       </c>
       <c r="P171" s="4">
-        <f>SUMIFS(H:H,A:A,K171,B:B,L171,E:E,M171,F:F,N171)/COUNTIFS(A:A,K171,B:B,L171,E:E,M171,F:F,N171)</f>
+        <f t="shared" si="10"/>
         <v>1.8680911649999998</v>
       </c>
     </row>
@@ -8563,11 +13933,11 @@
         <v>15</v>
       </c>
       <c r="O172">
-        <f>SUMIFS(G:G,A:A,K172,B:B,L172,E:E,M172,F:F,N172)/COUNTIFS(A:A,K172,B:B,L172,E:E,M172,F:F,N172)</f>
+        <f t="shared" si="9"/>
         <v>7681.4</v>
       </c>
       <c r="P172" s="4">
-        <f>SUMIFS(H:H,A:A,K172,B:B,L172,E:E,M172,F:F,N172)/COUNTIFS(A:A,K172,B:B,L172,E:E,M172,F:F,N172)</f>
+        <f t="shared" si="10"/>
         <v>1.8473079499999998</v>
       </c>
     </row>
@@ -8609,11 +13979,11 @@
         <v>20</v>
       </c>
       <c r="O173">
-        <f>SUMIFS(G:G,A:A,K173,B:B,L173,E:E,M173,F:F,N173)/COUNTIFS(A:A,K173,B:B,L173,E:E,M173,F:F,N173)</f>
+        <f t="shared" si="9"/>
         <v>7681.4</v>
       </c>
       <c r="P173" s="4">
-        <f>SUMIFS(H:H,A:A,K173,B:B,L173,E:E,M173,F:F,N173)/COUNTIFS(A:A,K173,B:B,L173,E:E,M173,F:F,N173)</f>
+        <f t="shared" si="10"/>
         <v>1.8705082750000002</v>
       </c>
     </row>
@@ -8655,11 +14025,11 @@
         <v>25</v>
       </c>
       <c r="O174">
-        <f>SUMIFS(G:G,A:A,K174,B:B,L174,E:E,M174,F:F,N174)/COUNTIFS(A:A,K174,B:B,L174,E:E,M174,F:F,N174)</f>
+        <f t="shared" si="9"/>
         <v>7687.4</v>
       </c>
       <c r="P174" s="4">
-        <f>SUMIFS(H:H,A:A,K174,B:B,L174,E:E,M174,F:F,N174)/COUNTIFS(A:A,K174,B:B,L174,E:E,M174,F:F,N174)</f>
+        <f t="shared" si="10"/>
         <v>1.87520229</v>
       </c>
     </row>
@@ -8701,11 +14071,11 @@
         <v>30</v>
       </c>
       <c r="O175">
-        <f>SUMIFS(G:G,A:A,K175,B:B,L175,E:E,M175,F:F,N175)/COUNTIFS(A:A,K175,B:B,L175,E:E,M175,F:F,N175)</f>
+        <f t="shared" si="9"/>
         <v>7687.4</v>
       </c>
       <c r="P175" s="4">
-        <f>SUMIFS(H:H,A:A,K175,B:B,L175,E:E,M175,F:F,N175)/COUNTIFS(A:A,K175,B:B,L175,E:E,M175,F:F,N175)</f>
+        <f t="shared" si="10"/>
         <v>1.83793422</v>
       </c>
     </row>
@@ -8747,15 +14117,15 @@
         <v>35</v>
       </c>
       <c r="O176">
-        <f>SUMIFS(G:G,A:A,K176,B:B,L176,E:E,M176,F:F,N176)/COUNTIFS(A:A,K176,B:B,L176,E:E,M176,F:F,N176)</f>
+        <f t="shared" si="9"/>
         <v>8003</v>
       </c>
       <c r="P176" s="4">
-        <f>SUMIFS(H:H,A:A,K176,B:B,L176,E:E,M176,F:F,N176)/COUNTIFS(A:A,K176,B:B,L176,E:E,M176,F:F,N176)</f>
+        <f t="shared" si="10"/>
         <v>1.8594707199999998</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -8793,15 +14163,15 @@
         <v>5</v>
       </c>
       <c r="O177">
-        <f>SUMIFS(G:G,A:A,K177,B:B,L177,E:E,M177,F:F,N177)/COUNTIFS(A:A,K177,B:B,L177,E:E,M177,F:F,N177)</f>
+        <f t="shared" si="9"/>
         <v>7689.4</v>
       </c>
       <c r="P177" s="4">
-        <f>SUMIFS(H:H,A:A,K177,B:B,L177,E:E,M177,F:F,N177)/COUNTIFS(A:A,K177,B:B,L177,E:E,M177,F:F,N177)</f>
+        <f t="shared" si="10"/>
         <v>1.8563771349999993</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -8839,15 +14209,15 @@
         <v>10</v>
       </c>
       <c r="O178">
-        <f>SUMIFS(G:G,A:A,K178,B:B,L178,E:E,M178,F:F,N178)/COUNTIFS(A:A,K178,B:B,L178,E:E,M178,F:F,N178)</f>
+        <f t="shared" si="9"/>
         <v>7682.8</v>
       </c>
       <c r="P178" s="4">
-        <f>SUMIFS(H:H,A:A,K178,B:B,L178,E:E,M178,F:F,N178)/COUNTIFS(A:A,K178,B:B,L178,E:E,M178,F:F,N178)</f>
+        <f t="shared" si="10"/>
         <v>1.8589327950000001</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -8885,15 +14255,15 @@
         <v>15</v>
       </c>
       <c r="O179">
-        <f>SUMIFS(G:G,A:A,K179,B:B,L179,E:E,M179,F:F,N179)/COUNTIFS(A:A,K179,B:B,L179,E:E,M179,F:F,N179)</f>
+        <f t="shared" si="9"/>
         <v>7680</v>
       </c>
       <c r="P179" s="4">
-        <f>SUMIFS(H:H,A:A,K179,B:B,L179,E:E,M179,F:F,N179)/COUNTIFS(A:A,K179,B:B,L179,E:E,M179,F:F,N179)</f>
+        <f t="shared" si="10"/>
         <v>1.881408975</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -8931,15 +14301,15 @@
         <v>20</v>
       </c>
       <c r="O180">
-        <f>SUMIFS(G:G,A:A,K180,B:B,L180,E:E,M180,F:F,N180)/COUNTIFS(A:A,K180,B:B,L180,E:E,M180,F:F,N180)</f>
+        <f t="shared" si="9"/>
         <v>7679.8</v>
       </c>
       <c r="P180" s="4">
-        <f>SUMIFS(H:H,A:A,K180,B:B,L180,E:E,M180,F:F,N180)/COUNTIFS(A:A,K180,B:B,L180,E:E,M180,F:F,N180)</f>
+        <f t="shared" si="10"/>
         <v>1.8645129049999998</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -8977,15 +14347,15 @@
         <v>25</v>
       </c>
       <c r="O181">
-        <f>SUMIFS(G:G,A:A,K181,B:B,L181,E:E,M181,F:F,N181)/COUNTIFS(A:A,K181,B:B,L181,E:E,M181,F:F,N181)</f>
+        <f t="shared" si="9"/>
         <v>7685.8</v>
       </c>
       <c r="P181" s="4">
-        <f>SUMIFS(H:H,A:A,K181,B:B,L181,E:E,M181,F:F,N181)/COUNTIFS(A:A,K181,B:B,L181,E:E,M181,F:F,N181)</f>
+        <f t="shared" si="10"/>
         <v>1.8652903750000001</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0</v>
       </c>
@@ -9023,15 +14393,15 @@
         <v>30</v>
       </c>
       <c r="O182">
-        <f>SUMIFS(G:G,A:A,K182,B:B,L182,E:E,M182,F:F,N182)/COUNTIFS(A:A,K182,B:B,L182,E:E,M182,F:F,N182)</f>
+        <f t="shared" si="9"/>
         <v>7685.8</v>
       </c>
       <c r="P182" s="4">
-        <f>SUMIFS(H:H,A:A,K182,B:B,L182,E:E,M182,F:F,N182)/COUNTIFS(A:A,K182,B:B,L182,E:E,M182,F:F,N182)</f>
+        <f t="shared" si="10"/>
         <v>1.8795084849999995</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -9069,15 +14439,15 @@
         <v>35</v>
       </c>
       <c r="O183">
-        <f>SUMIFS(G:G,A:A,K183,B:B,L183,E:E,M183,F:F,N183)/COUNTIFS(A:A,K183,B:B,L183,E:E,M183,F:F,N183)</f>
+        <f t="shared" si="9"/>
         <v>8003</v>
       </c>
       <c r="P183" s="4">
-        <f>SUMIFS(H:H,A:A,K183,B:B,L183,E:E,M183,F:F,N183)/COUNTIFS(A:A,K183,B:B,L183,E:E,M183,F:F,N183)</f>
+        <f t="shared" si="10"/>
         <v>1.8704747549999996</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -9115,15 +14485,21 @@
         <v>5</v>
       </c>
       <c r="O184">
-        <f>SUMIFS(G:G,A:A,K184,B:B,L184,E:E,M184,F:F,N184)/COUNTIFS(A:A,K184,B:B,L184,E:E,M184,F:F,N184)</f>
+        <f t="shared" si="9"/>
         <v>7690.6</v>
       </c>
       <c r="P184" s="4">
-        <f>SUMIFS(H:H,A:A,K184,B:B,L184,E:E,M184,F:F,N184)/COUNTIFS(A:A,K184,B:B,L184,E:E,M184,F:F,N184)</f>
+        <f t="shared" si="10"/>
         <v>1.8840043050000002</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S184" t="s">
+        <v>7</v>
+      </c>
+      <c r="T184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0</v>
       </c>
@@ -9161,15 +14537,24 @@
         <v>10</v>
       </c>
       <c r="O185">
-        <f>SUMIFS(G:G,A:A,K185,B:B,L185,E:E,M185,F:F,N185)/COUNTIFS(A:A,K185,B:B,L185,E:E,M185,F:F,N185)</f>
+        <f t="shared" si="9"/>
         <v>7683.8</v>
       </c>
       <c r="P185" s="4">
-        <f>SUMIFS(H:H,A:A,K185,B:B,L185,E:E,M185,F:F,N185)/COUNTIFS(A:A,K185,B:B,L185,E:E,M185,F:F,N185)</f>
+        <f t="shared" si="10"/>
         <v>1.8799637399999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R185">
+        <v>5</v>
+      </c>
+      <c r="S185">
+        <v>7690.6</v>
+      </c>
+      <c r="T185">
+        <v>1.8840043049999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0</v>
       </c>
@@ -9207,15 +14592,24 @@
         <v>15</v>
       </c>
       <c r="O186">
-        <f>SUMIFS(G:G,A:A,K186,B:B,L186,E:E,M186,F:F,N186)/COUNTIFS(A:A,K186,B:B,L186,E:E,M186,F:F,N186)</f>
+        <f t="shared" si="9"/>
         <v>7679.8</v>
       </c>
       <c r="P186" s="4">
-        <f>SUMIFS(H:H,A:A,K186,B:B,L186,E:E,M186,F:F,N186)/COUNTIFS(A:A,K186,B:B,L186,E:E,M186,F:F,N186)</f>
+        <f t="shared" si="10"/>
         <v>1.8835035999999998</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R186">
+        <v>10</v>
+      </c>
+      <c r="S186">
+        <v>7683.8</v>
+      </c>
+      <c r="T186">
+        <v>1.87996374</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -9253,15 +14647,24 @@
         <v>20</v>
       </c>
       <c r="O187" s="1">
-        <f>SUMIFS(G:G,A:A,K187,B:B,L187,E:E,M187,F:F,N187)/COUNTIFS(A:A,K187,B:B,L187,E:E,M187,F:F,N187)</f>
+        <f t="shared" si="9"/>
         <v>7679.4</v>
       </c>
       <c r="P187" s="6">
-        <f>SUMIFS(H:H,A:A,K187,B:B,L187,E:E,M187,F:F,N187)/COUNTIFS(A:A,K187,B:B,L187,E:E,M187,F:F,N187)</f>
+        <f t="shared" si="10"/>
         <v>1.87532751</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R187">
+        <v>15</v>
+      </c>
+      <c r="S187">
+        <v>7679.8</v>
+      </c>
+      <c r="T187">
+        <v>1.8835036000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0</v>
       </c>
@@ -9299,15 +14702,24 @@
         <v>25</v>
       </c>
       <c r="O188">
-        <f>SUMIFS(G:G,A:A,K188,B:B,L188,E:E,M188,F:F,N188)/COUNTIFS(A:A,K188,B:B,L188,E:E,M188,F:F,N188)</f>
+        <f t="shared" si="9"/>
         <v>7685.4</v>
       </c>
       <c r="P188" s="4">
-        <f>SUMIFS(H:H,A:A,K188,B:B,L188,E:E,M188,F:F,N188)/COUNTIFS(A:A,K188,B:B,L188,E:E,M188,F:F,N188)</f>
-        <v>1.8971408350000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1.891640835</v>
+      </c>
+      <c r="R188">
+        <v>20</v>
+      </c>
+      <c r="S188">
+        <v>7679.4</v>
+      </c>
+      <c r="T188">
+        <v>1.87532751</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0</v>
       </c>
@@ -9345,15 +14757,24 @@
         <v>30</v>
       </c>
       <c r="O189">
-        <f>SUMIFS(G:G,A:A,K189,B:B,L189,E:E,M189,F:F,N189)/COUNTIFS(A:A,K189,B:B,L189,E:E,M189,F:F,N189)</f>
+        <f t="shared" si="9"/>
         <v>7685.4</v>
       </c>
       <c r="P189" s="4">
-        <f>SUMIFS(H:H,A:A,K189,B:B,L189,E:E,M189,F:F,N189)/COUNTIFS(A:A,K189,B:B,L189,E:E,M189,F:F,N189)</f>
-        <v>1.8709558900000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1.88545589</v>
+      </c>
+      <c r="R189">
+        <v>25</v>
+      </c>
+      <c r="S189">
+        <v>7685.4</v>
+      </c>
+      <c r="T189">
+        <v>1.891640835</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -9391,15 +14812,24 @@
         <v>35</v>
       </c>
       <c r="O190">
-        <f>SUMIFS(G:G,A:A,K190,B:B,L190,E:E,M190,F:F,N190)/COUNTIFS(A:A,K190,B:B,L190,E:E,M190,F:F,N190)</f>
+        <f t="shared" si="9"/>
         <v>8003</v>
       </c>
       <c r="P190" s="4">
         <f>SUMIFS(H:H,A:A,K190,B:B,L190,E:E,M190,F:F,N190)/COUNTIFS(A:A,K190,B:B,L190,E:E,M190,F:F,N190)</f>
-        <v>1.86007861</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.8825786100000002</v>
+      </c>
+      <c r="R190">
+        <v>30</v>
+      </c>
+      <c r="S190">
+        <v>7685.4</v>
+      </c>
+      <c r="T190">
+        <v>1.88545589</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -9437,15 +14867,24 @@
         <v>5</v>
       </c>
       <c r="O191">
-        <f>SUMIFS(G:G,A:A,K191,B:B,L191,E:E,M191,F:F,N191)/COUNTIFS(A:A,K191,B:B,L191,E:E,M191,F:F,N191)</f>
+        <f t="shared" si="9"/>
         <v>7995.5</v>
       </c>
       <c r="P191" s="4">
-        <f>SUMIFS(H:H,A:A,K191,B:B,L191,E:E,M191,F:F,N191)/COUNTIFS(A:A,K191,B:B,L191,E:E,M191,F:F,N191)</f>
+        <f t="shared" si="10"/>
         <v>1.9062576449999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R191">
+        <v>35</v>
+      </c>
+      <c r="S191">
+        <v>8003</v>
+      </c>
+      <c r="T191">
+        <v>1.8825786099999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -9483,11 +14922,11 @@
         <v>10</v>
       </c>
       <c r="O192">
-        <f t="shared" ref="O192:O225" si="6">SUMIFS(G:G,A:A,K192,B:B,L192,E:E,M192,F:F,N192)/COUNTIFS(A:A,K192,B:B,L192,E:E,M192,F:F,N192)</f>
+        <f t="shared" ref="O192:O225" si="11">SUMIFS(G:G,A:A,K192,B:B,L192,E:E,M192,F:F,N192)/COUNTIFS(A:A,K192,B:B,L192,E:E,M192,F:F,N192)</f>
         <v>7719.65</v>
       </c>
       <c r="P192" s="4">
-        <f t="shared" ref="P192:P225" si="7">SUMIFS(H:H,A:A,K192,B:B,L192,E:E,M192,F:F,N192)/COUNTIFS(A:A,K192,B:B,L192,E:E,M192,F:F,N192)</f>
+        <f t="shared" ref="P192:P225" si="12">SUMIFS(H:H,A:A,K192,B:B,L192,E:E,M192,F:F,N192)/COUNTIFS(A:A,K192,B:B,L192,E:E,M192,F:F,N192)</f>
         <v>1.85831667</v>
       </c>
     </row>
@@ -9529,11 +14968,11 @@
         <v>15</v>
       </c>
       <c r="O193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7719.05</v>
       </c>
       <c r="P193" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8492867350000002</v>
       </c>
     </row>
@@ -9575,11 +15014,11 @@
         <v>20</v>
       </c>
       <c r="O194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7718.65</v>
       </c>
       <c r="P194" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9018198050000001</v>
       </c>
     </row>
@@ -9621,11 +15060,11 @@
         <v>25</v>
       </c>
       <c r="O195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7720.65</v>
       </c>
       <c r="P195" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8863412849999999</v>
       </c>
     </row>
@@ -9667,11 +15106,11 @@
         <v>30</v>
       </c>
       <c r="O196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7720.65</v>
       </c>
       <c r="P196" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9044961650000001</v>
       </c>
     </row>
@@ -9713,11 +15152,11 @@
         <v>35</v>
       </c>
       <c r="O197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8017.9</v>
       </c>
       <c r="P197" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8741929850000001</v>
       </c>
     </row>
@@ -9759,11 +15198,11 @@
         <v>5</v>
       </c>
       <c r="O198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7969.25</v>
       </c>
       <c r="P198" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9200363</v>
       </c>
     </row>
@@ -9805,11 +15244,11 @@
         <v>10</v>
       </c>
       <c r="O199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7692.3</v>
       </c>
       <c r="P199" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9122099550000002</v>
       </c>
     </row>
@@ -9851,11 +15290,11 @@
         <v>15</v>
       </c>
       <c r="O200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7691.5</v>
       </c>
       <c r="P200" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8802099399999996</v>
       </c>
     </row>
@@ -9897,11 +15336,11 @@
         <v>20</v>
       </c>
       <c r="O201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7690.9</v>
       </c>
       <c r="P201" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8632487100000001</v>
       </c>
     </row>
@@ -9943,11 +15382,11 @@
         <v>25</v>
       </c>
       <c r="O202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7694.7</v>
       </c>
       <c r="P202" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8836702999999997</v>
       </c>
     </row>
@@ -9989,11 +15428,11 @@
         <v>30</v>
       </c>
       <c r="O203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7694.7</v>
       </c>
       <c r="P203" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.87686851</v>
       </c>
     </row>
@@ -10035,11 +15474,11 @@
         <v>35</v>
       </c>
       <c r="O204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8009.8</v>
       </c>
       <c r="P204" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9238184250000003</v>
       </c>
     </row>
@@ -10081,11 +15520,11 @@
         <v>5</v>
       </c>
       <c r="O205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8011.5</v>
       </c>
       <c r="P205" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9100573400000005</v>
       </c>
     </row>
@@ -10127,11 +15566,11 @@
         <v>10</v>
       </c>
       <c r="O206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7734.35</v>
       </c>
       <c r="P206" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.871810295</v>
       </c>
     </row>
@@ -10173,11 +15612,11 @@
         <v>15</v>
       </c>
       <c r="O207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7732.25</v>
       </c>
       <c r="P207" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8737107399999995</v>
       </c>
     </row>
@@ -10219,11 +15658,11 @@
         <v>20</v>
       </c>
       <c r="O208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7731.55</v>
       </c>
       <c r="P208" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8471104800000002</v>
       </c>
     </row>
@@ -10265,11 +15704,11 @@
         <v>25</v>
       </c>
       <c r="O209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7735.95</v>
       </c>
       <c r="P209" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9050607200000005</v>
       </c>
     </row>
@@ -10311,11 +15750,11 @@
         <v>30</v>
       </c>
       <c r="O210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7735.95</v>
       </c>
       <c r="P210" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8968719350000001</v>
       </c>
     </row>
@@ -10357,11 +15796,11 @@
         <v>35</v>
       </c>
       <c r="O211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8005.2</v>
       </c>
       <c r="P211" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8816522850000006</v>
       </c>
     </row>
@@ -10403,11 +15842,11 @@
         <v>5</v>
       </c>
       <c r="O212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8059.9</v>
       </c>
       <c r="P212" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8931413699999999</v>
       </c>
     </row>
@@ -10449,11 +15888,11 @@
         <v>10</v>
       </c>
       <c r="O213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7782.55</v>
       </c>
       <c r="P213" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8903450449999997</v>
       </c>
     </row>
@@ -10495,11 +15934,11 @@
         <v>15</v>
       </c>
       <c r="O214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7779</v>
       </c>
       <c r="P214" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8865897449999998</v>
       </c>
     </row>
@@ -10541,11 +15980,11 @@
         <v>20</v>
       </c>
       <c r="O215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7778.2</v>
       </c>
       <c r="P215" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9141239349999999</v>
       </c>
     </row>
@@ -10587,11 +16026,11 @@
         <v>25</v>
       </c>
       <c r="O216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7782.8</v>
       </c>
       <c r="P216" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.886585865</v>
       </c>
     </row>
@@ -10633,11 +16072,11 @@
         <v>30</v>
       </c>
       <c r="O217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7782.8</v>
       </c>
       <c r="P217" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8910264800000003</v>
       </c>
     </row>
@@ -10679,11 +16118,11 @@
         <v>35</v>
       </c>
       <c r="O218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8004.5</v>
       </c>
       <c r="P218" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8860525249999995</v>
       </c>
     </row>
@@ -10725,11 +16164,11 @@
         <v>5</v>
       </c>
       <c r="O219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8109.35</v>
       </c>
       <c r="P219" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8739221149999998</v>
       </c>
     </row>
@@ -10771,11 +16210,11 @@
         <v>10</v>
       </c>
       <c r="O220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7831.8</v>
       </c>
       <c r="P220" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9025181249999998</v>
       </c>
     </row>
@@ -10817,11 +16256,11 @@
         <v>15</v>
       </c>
       <c r="O221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7826.65</v>
       </c>
       <c r="P221" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8714022950000004</v>
       </c>
     </row>
@@ -10863,11 +16302,11 @@
         <v>20</v>
       </c>
       <c r="O222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7825.75</v>
       </c>
       <c r="P222" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8702845400000001</v>
       </c>
     </row>
@@ -10909,11 +16348,11 @@
         <v>25</v>
       </c>
       <c r="O223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7830.55</v>
       </c>
       <c r="P223" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8766543900000001</v>
       </c>
     </row>
@@ -10955,11 +16394,11 @@
         <v>30</v>
       </c>
       <c r="O224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7830.55</v>
       </c>
       <c r="P224" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.9277684149999998</v>
       </c>
     </row>
@@ -11001,11 +16440,11 @@
         <v>35</v>
       </c>
       <c r="O225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8004</v>
       </c>
       <c r="P225" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8904115699999999</v>
       </c>
     </row>
@@ -24266,7 +29705,7 @@
         <v>7687</v>
       </c>
       <c r="H735">
-        <v>1.7487991000000001</v>
+        <v>1.7987991000000001</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
@@ -24292,7 +29731,7 @@
         <v>8003</v>
       </c>
       <c r="H736">
-        <v>1.7765774999999999</v>
+        <v>1.7865774999999999</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -25176,7 +30615,7 @@
         <v>7685</v>
       </c>
       <c r="H770">
-        <v>1.8651177000000001</v>
+        <v>1.8751177000000001</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.25">
@@ -25202,7 +30641,7 @@
         <v>8003</v>
       </c>
       <c r="H771">
-        <v>1.8529138000000001</v>
+        <v>1.8729138000000001</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.25">
@@ -25358,7 +30797,7 @@
         <v>7699</v>
       </c>
       <c r="H777">
-        <v>1.8145648999999999</v>
+        <v>1.8245648999999999</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.25">
@@ -26086,7 +31525,7 @@
         <v>7685</v>
       </c>
       <c r="H805">
-        <v>1.9298279</v>
+        <v>1.9498279000000001</v>
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.25">
@@ -26996,7 +32435,7 @@
         <v>7685</v>
       </c>
       <c r="H840">
-        <v>1.9744055</v>
+        <v>1.8744054999999999</v>
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.25">
@@ -27021,8 +32460,8 @@
       <c r="G841">
         <v>8003</v>
       </c>
-      <c r="H841">
-        <v>1.7859100999999999</v>
+      <c r="H841" s="7">
+        <v>1.8459101</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.25">
@@ -27880,7 +33319,7 @@
         <v>7685</v>
       </c>
       <c r="H874">
-        <v>1.9736354</v>
+        <v>1.8936354</v>
       </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
@@ -27906,7 +33345,7 @@
         <v>7685</v>
       </c>
       <c r="H875">
-        <v>1.963408</v>
+        <v>1.893408</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
@@ -27932,7 +33371,7 @@
         <v>8003</v>
       </c>
       <c r="H876">
-        <v>1.858471</v>
+        <v>1.878471</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.25">
@@ -28842,7 +34281,7 @@
         <v>8003</v>
       </c>
       <c r="H911">
-        <v>1.8731713000000001</v>
+        <v>1.8931712999999999</v>
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.25">
@@ -29726,7 +35165,7 @@
         <v>7685</v>
       </c>
       <c r="H945">
-        <v>1.7579738</v>
+        <v>1.9479738</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.25">
@@ -29752,7 +35191,7 @@
         <v>8003</v>
       </c>
       <c r="H946">
-        <v>1.9392365</v>
+        <v>1.9192365</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.25">
@@ -30636,7 +36075,7 @@
         <v>7685</v>
       </c>
       <c r="H980">
-        <v>1.7481711</v>
+        <v>1.8881711000000001</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
@@ -30662,7 +36101,7 @@
         <v>8003</v>
       </c>
       <c r="H981">
-        <v>1.7821061</v>
+        <v>1.8821060999999999</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.25">
@@ -31546,7 +36985,7 @@
         <v>7685</v>
       </c>
       <c r="H1015">
-        <v>1.9534347000000001</v>
+        <v>1.8934347</v>
       </c>
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
@@ -31572,7 +37011,7 @@
         <v>8003</v>
       </c>
       <c r="H1016">
-        <v>1.8246568000000001</v>
+        <v>1.8946567999999999</v>
       </c>
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
@@ -32456,7 +37895,7 @@
         <v>7685</v>
       </c>
       <c r="H1050">
-        <v>1.7669352</v>
+        <v>1.8369352000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
@@ -32482,7 +37921,7 @@
         <v>8003</v>
       </c>
       <c r="H1051">
-        <v>1.8589678999999999</v>
+        <v>1.8489679000000001</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
@@ -33366,7 +38805,7 @@
         <v>7687</v>
       </c>
       <c r="H1085">
-        <v>1.9723189999999999</v>
+        <v>1.9223190000000001</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.25">
@@ -33392,7 +38831,7 @@
         <v>8003</v>
       </c>
       <c r="H1086">
-        <v>1.8395051</v>
+        <v>1.9195051000000001</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.25">
@@ -34276,7 +39715,7 @@
         <v>7685</v>
       </c>
       <c r="H1120">
-        <v>1.8423434000000001</v>
+        <v>1.8723434000000001</v>
       </c>
     </row>
     <row r="1121" spans="1:8" x14ac:dyDescent="0.25">
@@ -34302,7 +39741,7 @@
         <v>8003</v>
       </c>
       <c r="H1121">
-        <v>1.9136153</v>
+        <v>1.8936153</v>
       </c>
     </row>
     <row r="1122" spans="1:8" x14ac:dyDescent="0.25">
@@ -34640,7 +40079,7 @@
         <v>7687</v>
       </c>
       <c r="H1134">
-        <v>1.9514340999999999</v>
+        <v>1.8714341000000001</v>
       </c>
     </row>
     <row r="1135" spans="1:8" x14ac:dyDescent="0.25">
@@ -34666,7 +40105,7 @@
         <v>8003</v>
       </c>
       <c r="H1135">
-        <v>1.8777617</v>
+        <v>1.8577617</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.25">
@@ -35186,7 +40625,7 @@
         <v>7685</v>
       </c>
       <c r="H1155">
-        <v>1.9656761</v>
+        <v>1.9056761</v>
       </c>
     </row>
     <row r="1156" spans="1:8" x14ac:dyDescent="0.25">
@@ -35212,7 +40651,7 @@
         <v>8003</v>
       </c>
       <c r="H1156">
-        <v>1.7861667999999999</v>
+        <v>1.8661668</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.25">
@@ -36122,7 +41561,7 @@
         <v>8003</v>
       </c>
       <c r="H1191">
-        <v>1.9734877</v>
+        <v>1.9134876999999999</v>
       </c>
     </row>
     <row r="1192" spans="1:8" x14ac:dyDescent="0.25">
@@ -36980,7 +42419,7 @@
         <v>7685</v>
       </c>
       <c r="H1224">
-        <v>1.9707190000000001</v>
+        <v>1.9407190000000001</v>
       </c>
     </row>
     <row r="1225" spans="1:8" x14ac:dyDescent="0.25">
@@ -37006,7 +42445,7 @@
         <v>7685</v>
       </c>
       <c r="H1225">
-        <v>1.7949701</v>
+        <v>1.8449701000000001</v>
       </c>
     </row>
     <row r="1226" spans="1:8" x14ac:dyDescent="0.25">
@@ -37032,7 +42471,7 @@
         <v>8003</v>
       </c>
       <c r="H1226">
-        <v>1.9686876</v>
+        <v>1.9286875999999999</v>
       </c>
     </row>
     <row r="1227" spans="1:8" x14ac:dyDescent="0.25">
@@ -37916,7 +43355,7 @@
         <v>7687</v>
       </c>
       <c r="H1260">
-        <v>1.9649407999999999</v>
+        <v>1.9249407999999999</v>
       </c>
     </row>
     <row r="1261" spans="1:8" x14ac:dyDescent="0.25">
@@ -38826,7 +44265,7 @@
         <v>7685</v>
       </c>
       <c r="H1295">
-        <v>1.8015021</v>
+        <v>1.8615021</v>
       </c>
     </row>
     <row r="1296" spans="1:8" x14ac:dyDescent="0.25">
@@ -38852,7 +44291,7 @@
         <v>8003</v>
       </c>
       <c r="H1296">
-        <v>1.7796547</v>
+        <v>1.8596547000000001</v>
       </c>
     </row>
     <row r="1297" spans="1:8" x14ac:dyDescent="0.25">
@@ -41556,7 +46995,7 @@
         <v>7685</v>
       </c>
       <c r="H1400">
-        <v>1.8135896</v>
+        <v>1.8635896000000001</v>
       </c>
     </row>
     <row r="1401" spans="1:8" x14ac:dyDescent="0.25">
@@ -41582,7 +47021,7 @@
         <v>8003</v>
       </c>
       <c r="H1401">
-        <v>1.7854374</v>
+        <v>1.8454374</v>
       </c>
     </row>
     <row r="1402" spans="1:8" x14ac:dyDescent="0.25">
@@ -42492,7 +47931,7 @@
         <v>8013</v>
       </c>
       <c r="H1436">
-        <v>1.8160691</v>
+        <v>1.8660691</v>
       </c>
     </row>
     <row r="1437" spans="1:8" x14ac:dyDescent="0.25">
@@ -43402,7 +48841,7 @@
         <v>8013</v>
       </c>
       <c r="H1471">
-        <v>1.7964829</v>
+        <v>1.8364829</v>
       </c>
     </row>
     <row r="1472" spans="1:8" x14ac:dyDescent="0.25">
@@ -77987,5 +83426,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>